--- a/LubanConfig/MiniTemplate/Datas/#builditem.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/#builditem.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -254,6 +254,30 @@
   </si>
   <si>
     <t>canbaobao</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>合成工坊</t>
+  </si>
+  <si>
+    <t>MaterialFactory</t>
+  </si>
+  <si>
+    <t>13:2|14:3</t>
+  </si>
+  <si>
+    <t>Shack</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>Shop</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1727,6 +1751,79 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>110</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16">
+        <v>2000</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
     </row>
